--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N2">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q2">
-        <v>34.29659909609333</v>
+        <v>107.516340870291</v>
       </c>
       <c r="R2">
-        <v>308.66939186484</v>
+        <v>967.6470678326189</v>
       </c>
       <c r="S2">
-        <v>0.02794784028625103</v>
+        <v>0.06140134781824951</v>
       </c>
       <c r="T2">
-        <v>0.02794784028625103</v>
+        <v>0.06140134781824953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q3">
-        <v>327.2248237052991</v>
+        <v>370.5832726279357</v>
       </c>
       <c r="R3">
-        <v>2945.023413347692</v>
+        <v>3335.249453651421</v>
       </c>
       <c r="S3">
-        <v>0.2666511360204827</v>
+        <v>0.2116358521325065</v>
       </c>
       <c r="T3">
-        <v>0.2666511360204827</v>
+        <v>0.2116358521325065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N4">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q4">
-        <v>122.0258662454191</v>
+        <v>245.4255519467244</v>
       </c>
       <c r="R4">
-        <v>1098.232796208772</v>
+        <v>2208.829967520519</v>
       </c>
       <c r="S4">
-        <v>0.09943724773010723</v>
+        <v>0.1401597148543836</v>
       </c>
       <c r="T4">
-        <v>0.0994372477301072</v>
+        <v>0.1401597148543836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N5">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O5">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P5">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q5">
-        <v>26.033697822988</v>
+        <v>54.14498342830599</v>
       </c>
       <c r="R5">
-        <v>234.303280406892</v>
+        <v>487.304850854754</v>
       </c>
       <c r="S5">
-        <v>0.02121451245876644</v>
+        <v>0.03092157836831129</v>
       </c>
       <c r="T5">
-        <v>0.02121451245876643</v>
+        <v>0.03092157836831129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N6">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q6">
-        <v>15.63149692737</v>
+        <v>43.26975322740899</v>
       </c>
       <c r="R6">
-        <v>140.68347234633</v>
+        <v>389.4277790466809</v>
       </c>
       <c r="S6">
-        <v>0.01273789795708704</v>
+        <v>0.02471085926492965</v>
       </c>
       <c r="T6">
-        <v>0.01273789795708704</v>
+        <v>0.02471085926492965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q7">
         <v>149.140555073031</v>
@@ -883,10 +883,10 @@
         <v>1342.264995657279</v>
       </c>
       <c r="S7">
-        <v>0.1215326453128901</v>
+        <v>0.08517245863950682</v>
       </c>
       <c r="T7">
-        <v>0.12153264531289</v>
+        <v>0.08517245863950683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N8">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q8">
-        <v>55.616212789221</v>
+        <v>98.77106105430903</v>
       </c>
       <c r="R8">
-        <v>500.545915102989</v>
+        <v>888.9395494887812</v>
       </c>
       <c r="S8">
-        <v>0.04532090858350892</v>
+        <v>0.05640701892459014</v>
       </c>
       <c r="T8">
-        <v>0.04532090858350891</v>
+        <v>0.05640701892459014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N9">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O9">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P9">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q9">
-        <v>11.865481658631</v>
+        <v>21.790548789894</v>
       </c>
       <c r="R9">
-        <v>106.789334927679</v>
+        <v>196.114939109046</v>
       </c>
       <c r="S9">
-        <v>0.009669022441138599</v>
+        <v>0.0124443322249309</v>
       </c>
       <c r="T9">
-        <v>0.009669022441138595</v>
+        <v>0.0124443322249309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N10">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q10">
-        <v>8.7225235046</v>
+        <v>33.71021723374199</v>
       </c>
       <c r="R10">
-        <v>78.5027115414</v>
+        <v>303.3919551036779</v>
       </c>
       <c r="S10">
-        <v>0.007107867841840899</v>
+        <v>0.01925151801710622</v>
       </c>
       <c r="T10">
-        <v>0.007107867841840899</v>
+        <v>0.01925151801710622</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q11">
-        <v>83.22184389364668</v>
+        <v>116.1911066016446</v>
       </c>
       <c r="R11">
-        <v>748.9965950428201</v>
+        <v>1045.719959414802</v>
       </c>
       <c r="S11">
-        <v>0.06781636846703815</v>
+        <v>0.0663554069277877</v>
       </c>
       <c r="T11">
-        <v>0.06781636846703813</v>
+        <v>0.06635540692778773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N12">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q12">
-        <v>31.03437409384667</v>
+        <v>76.94968600927534</v>
       </c>
       <c r="R12">
-        <v>279.30936684462</v>
+        <v>692.547174083478</v>
       </c>
       <c r="S12">
-        <v>0.02528949672614598</v>
+        <v>0.04394508217928172</v>
       </c>
       <c r="T12">
-        <v>0.02528949672614597</v>
+        <v>0.04394508217928173</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N13">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O13">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P13">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q13">
-        <v>6.621051274980001</v>
+        <v>16.976388321172</v>
       </c>
       <c r="R13">
-        <v>59.58946147482</v>
+        <v>152.7874948905479</v>
       </c>
       <c r="S13">
-        <v>0.005395406204613969</v>
+        <v>0.009695020455202081</v>
       </c>
       <c r="T13">
-        <v>0.005395406204613968</v>
+        <v>0.009695020455202083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N14">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q14">
-        <v>23.94188683455</v>
+        <v>57.59300159500798</v>
       </c>
       <c r="R14">
-        <v>215.47698151095</v>
+        <v>518.3370143550719</v>
       </c>
       <c r="S14">
-        <v>0.01950992363787226</v>
+        <v>0.03289070195476895</v>
       </c>
       <c r="T14">
-        <v>0.01950992363787226</v>
+        <v>0.03289070195476896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.542951</v>
       </c>
       <c r="O15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q15">
-        <v>228.430220636665</v>
+        <v>198.5093878640498</v>
       </c>
       <c r="R15">
-        <v>2055.871985729985</v>
+        <v>1786.584490776448</v>
       </c>
       <c r="S15">
-        <v>0.1861447342058415</v>
+        <v>0.1133664322164104</v>
       </c>
       <c r="T15">
-        <v>0.1861447342058415</v>
+        <v>0.1133664322164104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N16">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q16">
-        <v>85.18423276751501</v>
+        <v>131.4664737500302</v>
       </c>
       <c r="R16">
-        <v>766.6580949076351</v>
+        <v>1183.198263750272</v>
       </c>
       <c r="S16">
-        <v>0.06941549293628139</v>
+        <v>0.07507899372154786</v>
       </c>
       <c r="T16">
-        <v>0.06941549293628138</v>
+        <v>0.07507899372154787</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N17">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O17">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P17">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q17">
-        <v>18.173692540665</v>
+        <v>29.00370391799466</v>
       </c>
       <c r="R17">
-        <v>163.563232865985</v>
+        <v>261.0333352619519</v>
       </c>
       <c r="S17">
-        <v>0.01480949919013378</v>
+        <v>0.01656368230048654</v>
       </c>
       <c r="T17">
-        <v>0.01480949919013378</v>
+        <v>0.01656368230048654</v>
       </c>
     </row>
   </sheetData>
